--- a/Documentatie/Urenverantwoording/Perijn/Urenverantwoording perijn.xlsx
+++ b/Documentatie/Urenverantwoording/Perijn/Urenverantwoording perijn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Perijn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Perijn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68F308A-B069-4D65-BABE-C2EE36083BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920EB186-1135-423C-B78D-1A4BE636DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="55">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -177,6 +177,36 @@
   </si>
   <si>
     <t>Hendrik Bijlsma</t>
+  </si>
+  <si>
+    <t>Heb nog kleine aanpassingen gemaakt aan de state diagrams, daarnaast heb ik ook nog wat testen uitgevoerd in questa</t>
+  </si>
+  <si>
+    <t>Dirk, Ammaar en ik hebben samen gezeten om de state diagrams te verbeteren zodat wij beter met elkaar konden overleggen</t>
+  </si>
+  <si>
+    <t>Wij zijn met ze allen bezig geweest met het beginnen van de state diagrams te maken</t>
+  </si>
+  <si>
+    <t>Tutor gesprek gehad met Cees.</t>
+  </si>
+  <si>
+    <t>Dirk en ik zijn bezig geweest met het verbeteren van het top-down architectuur.</t>
+  </si>
+  <si>
+    <t>Ben nog bezig geweest met de handleiding te vebeteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandaag hadden wij een teamgesprek, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verder gegaan aan het review van de handleiding </t>
+  </si>
+  <si>
+    <t>Vandaag hebben wij informatie gekregen over de wasmachine</t>
+  </si>
+  <si>
+    <t>Vandaag hebben wij onze eerste tutor gespreek met Cees gehad</t>
   </si>
 </sst>
 </file>
@@ -711,7 +741,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -792,6 +822,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,18 +900,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,12 +924,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -917,7 +965,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2537,7 +2585,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2808,16 +2856,16 @@
                   <c:v>0.35416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19791666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.44444444444444431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.37499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2935,7 +2983,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3183,19 +3231,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28819444444444436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19791666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.42708333333333326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2708333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.1875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10416666666666663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,7 +3352,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3551,10 +3599,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3563,7 +3611,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,7 +3849,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4298,7 +4346,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4489,19 +4537,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.8611111111111105E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333259E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333259E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,7 +4657,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4800,16 +4848,16 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.13541666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4920,7 +4968,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5231,7 +5279,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5542,7 +5590,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5853,7 +5901,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6996,10 +7044,10 @@
                   <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7008,7 +7056,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7026,31 +7074,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.8611111111111105E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333259E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333259E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.13541666666666663</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -13755,7 +13803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -14054,7 +14102,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -14135,10 +14183,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14146,10 +14194,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14175,10 +14223,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14186,10 +14234,10 @@
         <v>42</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14256,19 +14304,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14277,25 +14325,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14306,22 +14354,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14329,25 +14377,25 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14358,22 +14406,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14381,25 +14429,25 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.1875</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14410,46 +14458,46 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.625</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14458,46 +14506,46 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14506,22 +14554,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14540,7 +14588,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14562,51 +14610,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14676,16 +14724,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14699,6 +14737,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14906,8 +14954,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14988,11 +15036,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15000,11 +15048,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15030,11 +15078,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15042,11 +15090,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15113,18 +15161,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15134,25 +15182,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15161,46 +15211,48 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15209,46 +15261,46 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15257,46 +15309,46 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15305,46 +15357,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15353,22 +15407,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15387,7 +15441,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15409,51 +15463,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15480,7 +15534,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15503,7 +15557,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -15526,11 +15580,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15540,15 +15598,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15640,11 +15694,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15652,11 +15706,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15682,11 +15736,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15694,11 +15748,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15765,18 +15819,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15786,25 +15840,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15813,46 +15867,46 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15861,46 +15915,46 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15909,46 +15963,46 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15957,46 +16011,46 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16005,22 +16059,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16039,7 +16093,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16061,51 +16115,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16132,7 +16186,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>0.55208333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16175,16 +16229,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16198,6 +16242,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16209,7 +16263,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16289,11 +16343,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16301,11 +16355,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16331,11 +16385,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16343,11 +16397,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16414,18 +16468,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16435,25 +16489,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16462,46 +16518,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16510,46 +16568,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16558,45 +16618,47 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16606,45 +16668,47 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16654,22 +16718,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16688,7 +16752,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16710,51 +16774,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16781,7 +16845,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>0.99652777777777757</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16804,7 +16868,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.44444444444444431</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16824,16 +16888,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16847,6 +16901,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16857,8 +16921,8 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16939,11 +17003,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16951,11 +17015,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16981,11 +17045,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16993,11 +17057,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17064,18 +17128,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17085,25 +17149,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+        <v>0.46875</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17112,45 +17178,45 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17160,45 +17226,47 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17208,45 +17276,47 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17256,45 +17326,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17304,22 +17374,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17338,7 +17408,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17360,51 +17430,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17431,7 +17501,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>1.3715277777777775</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17454,7 +17524,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -17474,16 +17544,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17497,6 +17557,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17601,11 +17671,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17613,11 +17683,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17643,11 +17713,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17655,11 +17725,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17726,18 +17796,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17747,25 +17817,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17774,45 +17844,45 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17822,45 +17892,45 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17870,45 +17940,45 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17918,45 +17988,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17966,22 +18036,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18000,7 +18070,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18022,51 +18092,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18093,7 +18163,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>1.3715277777777775</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18136,16 +18206,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18159,6 +18219,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18251,11 +18321,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18263,11 +18333,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18293,11 +18363,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18305,11 +18375,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18376,18 +18446,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18397,25 +18467,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18424,45 +18494,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18472,45 +18542,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18520,45 +18590,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18568,45 +18638,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18616,22 +18686,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18650,7 +18720,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18672,51 +18742,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18743,7 +18813,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>1.3715277777777775</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18786,16 +18856,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18809,6 +18869,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18913,11 +18983,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Perijn Huijser</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18925,11 +18995,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18955,11 +19025,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18967,11 +19037,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19038,18 +19108,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19059,25 +19129,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19086,45 +19156,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19134,45 +19204,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19182,45 +19252,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19230,45 +19300,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19278,22 +19348,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19312,7 +19382,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19334,51 +19404,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19405,7 +19475,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.35416666666666663</v>
+        <v>1.3715277777777775</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19448,16 +19518,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19471,6 +19531,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19603,7 +19673,7 @@
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="44" t="s">
@@ -19626,7 +19696,7 @@
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="Q4" s="44" t="s">
         <v>15</v>
@@ -19637,7 +19707,7 @@
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="U4" s="44" t="s">
         <v>15</v>
@@ -19695,7 +19765,7 @@
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="44" t="s">
@@ -19718,7 +19788,7 @@
       </c>
       <c r="O5" s="45">
         <f>'week 4'!B13</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="Q5" s="44" t="s">
         <v>16</v>
@@ -19810,7 +19880,7 @@
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="Q6" s="44" t="s">
         <v>17</v>
@@ -19821,7 +19891,7 @@
       </c>
       <c r="S6" s="45">
         <f>'week 5'!B15</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="U6" s="44" t="s">
         <v>17</v>
@@ -19902,7 +19972,7 @@
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="Q7" s="44" t="s">
         <v>18</v>
@@ -19913,7 +19983,7 @@
       </c>
       <c r="S7" s="45">
         <f>'week 5'!B17</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="U7" s="44" t="s">
         <v>18</v>
@@ -19971,7 +20041,7 @@
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="46" t="s">
@@ -19994,7 +20064,7 @@
       </c>
       <c r="O8" s="47">
         <f>'week 4'!B19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q8" s="46" t="s">
         <v>19</v>
@@ -20053,7 +20123,7 @@
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
-        <v>0</v>
+        <v>0.19791666666666663</v>
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
@@ -20061,11 +20131,11 @@
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
-        <v>0</v>
+        <v>0.44444444444444431</v>
       </c>
       <c r="E24" s="48">
         <f>'week 5'!D28</f>
-        <v>0</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="F24" s="48">
         <f>'week 6'!D28</f>
@@ -20083,23 +20153,23 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0</v>
+        <v>0.28819444444444436</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
-        <v>0</v>
+        <v>0.19791666666666669</v>
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0.1875</v>
+        <v>0.42708333333333326</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
-        <v>0.10416666666666663</v>
+        <v>0.2708333333333332</v>
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20195,14 +20265,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20409,21 +20477,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20448,9 +20515,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>